--- a/docs/PTA2_DDC_80/PTA2_DDC_80_26.07.24_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731782812.9977636</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731782813.3626933</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782812.9977636.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782813.3626933.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>299.23</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>298.75</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.4800000000000182</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731782813.376657</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731782813.4414876</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782813.376657.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782813.4414876.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>298.75</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>298.87</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731782813.8038797</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731782814.0965455</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782813.8038797.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782814.0965455.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>296.25</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>297.84</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.589999999999975</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731782814.8274837</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731782816.7298257</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782814.8274837.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782816.7298257.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>295.06</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>294.94</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731782817.720475</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731782818.7531955</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782817.720475.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782818.7531955.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>295.59</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>294.18</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1.409999999999968</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731782818.7671587</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731782818.9292939</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782818.7671587.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731782818.9292939.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>294.18</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>294.6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.4200000000000159</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731782823.3977892</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731782823.4764302</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782823.3977892.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782823.4764302.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>136.46</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>136.18</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731782824.1419804</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731782824.3757575</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782824.1419804.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782824.3757575.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>133.67</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>135.33</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.660000000000025</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>1.24</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731782825.1049325</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731782826.95908</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782825.1049325.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782826.95908.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>133.1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>133.56</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.460000000000008</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731782827.967722</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731782829.9251506</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782827.967722.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731782829.9251506.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>134.04</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>135.01</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.9699999999999989</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -1059,95 +1135,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731782830.4657738</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731782830.4657738.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731782830.4657738.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>134.78</v>
       </c>
-      <c r="J13" t="n">
-        <v>134.78</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>134.7</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.08000000000001251</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731782830.713893</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731782831.5306358</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782830.713893.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782831.5306358.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6945</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6947</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-2</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731782833.946016</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731782834.187534</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782833.946016.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782834.187534.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6925.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6936</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>10.5</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731782834.8830385</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731782835.1917326</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782834.8830385.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782835.1917326.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6892.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6925</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>32.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731782839.7862568</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731782839.8923151</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782839.7862568.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782839.8923151.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6947</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6933.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>13.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731782839.994096</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731782840.3318713</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782839.994096.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731782840.3318713.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6926.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6941</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>14.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731782842.0951676</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731782843.0075617</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782842.0951676.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782843.0075617.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>535.9</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>536.85</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.9500000000000455</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731782843.6468675</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731782844.817517</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782843.6468675.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782844.817517.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>537.8</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>537.05</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.75</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731782844.885607</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731782845.1885793</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782844.885607.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782845.1885793.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>535.75</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>534.8</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.9500000000000455</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731782845.759456</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731782849.254939</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782845.759456.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782849.254939.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>530.3</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>521.95</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-8.349999999999909</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-1.57</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731782850.7834742</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731782851.3391445</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782850.7834742.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731782851.3391445.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>524.75</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>523.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.25</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731782851.888225</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731782852.390802</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782851.888225.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782852.390802.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1096.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1093.8</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>3</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731782853.1621065</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731782853.7556438</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782853.1621065.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782853.7556438.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1093</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1094.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731782854.2264302</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731782854.6236365</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782854.2264302.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782854.6236365.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1096.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1094.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2.399999999999864</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731782855.024775</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731782855.3834157</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782855.024775.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782855.3834157.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1086.6</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1087</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.4000000000000909</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731782856.1400034</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731782856.9568787</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782856.1400034.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782856.9568787.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1072.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1079.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>7.399999999999864</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731782857.3096519</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731782859.253892</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782857.3096519.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782859.253892.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1063.6</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1064.2</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.6000000000001364</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731782859.7797716</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731782861.580453</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782859.7797716.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731782861.580453.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1068.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1072.4</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-3.800000000000182</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731782862.3307931</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731782863.070947</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782862.3307931.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782863.070947.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>131.08</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>130.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731782865.019329</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731782865.9304368</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782865.019329.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782865.9304368.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>130.02</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>129.62</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.4000000000000057</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731782866.184866</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731782869.5927346</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782866.184866.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782869.5927346.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>128.46</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>125.76</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-2.700000000000003</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-2.1</v>
       </c>
     </row>
@@ -2143,51 +2345,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731782870.062644</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731782872.234316</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782870.062644.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731782872.234316.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>126.22</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>127.3</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-1.079999999999998</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.86</v>
       </c>
     </row>
@@ -2195,51 +2403,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731782874.2069147</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731782875.3595335</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782874.2069147.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782875.3595335.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>174.04</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>174.48</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.4399999999999977</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -2247,51 +2461,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731782875.4902685</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731782875.7408268</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782875.4902685.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782875.7408268.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>172.04</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>174.5</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>2.460000000000008</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>1.43</v>
       </c>
     </row>
@@ -2299,51 +2519,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731782876.4120524</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731782879.0084124</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782876.4120524.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782879.0084124.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>170.6</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>167.58</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-3.019999999999982</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-1.77</v>
       </c>
     </row>
@@ -2351,51 +2577,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731782879.1400607</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731782881.5965934</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782879.1400607.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731782881.5965934.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>168.58</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>170.9</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-2.319999999999993</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-1.38</v>
       </c>
     </row>
@@ -2403,51 +2635,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731782882.3559487</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731782882.9897857</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782882.3559487.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782882.9897857.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>53.425</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>53.315</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2455,51 +2693,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731782883.0619855</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731782883.2150102</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782883.0619855.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782883.2150102.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>53.415</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>53.345</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2507,51 +2751,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731782883.3785646</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731782884.9456317</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782883.3785646.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782884.9456317.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>53.43</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>53.33</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2559,51 +2809,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731782884.960595</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731782885.0204356</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782884.960595.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782885.0204356.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>53.33</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>53.405</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.07500000000000284</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2611,51 +2867,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731782885.45437</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731782885.9370723</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782885.45437.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782885.9370723.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>53.21</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>53.25</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2663,51 +2925,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731782886.188568</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731782890.1202667</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782886.188568.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731782890.1202667.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>53.04</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>52.25</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.7899999999999991</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-1.49</v>
       </c>
     </row>
@@ -2715,95 +2983,107 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731782890.2289753</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731782890.2289753.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731782890.2289753.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>52.29</v>
       </c>
-      <c r="J45" t="n">
-        <v>52.29</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>52.505</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.2150000000000034</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731782892.5405593</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731782892.948467</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782892.5405593.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782892.948467.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1464.8</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1458.4</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>6.399999999999864</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -2811,51 +3091,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731782894.277414</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731782894.6631854</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782894.277414.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782894.6631854.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1460</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1459.8</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2863,51 +3149,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731782895.4822419</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731782895.8041775</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782895.4822419.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782895.8041775.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1453.4</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1448.8</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-4.600000000000136</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -2915,51 +3207,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731782897.483627</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731782898.7985268</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782897.483627.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782898.7985268.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1432.4</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1432.4</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2967,51 +3265,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731782899.8689997</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731782900.4929717</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782899.8689997.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731782900.4929717.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1437.2</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1432</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>5.200000000000045</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3019,95 +3323,107 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731782901.1907656</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731782901.1907656.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731782901.1907656.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1446</v>
       </c>
-      <c r="J51" t="n">
-        <v>1446</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1440.2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5.799999999999955</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731782902.5554962</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731782902.7439919</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782902.5554962.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782902.7439919.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>63.73</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>63.58</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1499999999999986</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3115,51 +3431,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731782903.440983</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731782903.89463</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782903.440983.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782903.89463.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>63.43</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>63.78</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.3500000000000014</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -3167,51 +3489,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731782903.9415295</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731782904.6617012</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782903.9415295.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782904.6617012.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>63.82</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>63.55</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2700000000000031</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -3219,51 +3547,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731782905.0553002</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731782905.3345168</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782905.0553002.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782905.3345168.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>63.16</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>63.23</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3271,51 +3605,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731782905.988963</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731782908.4812756</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782905.988963.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782908.4812756.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>62.52</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>60.98</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-1.540000000000006</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-2.46</v>
       </c>
     </row>
@@ -3323,51 +3663,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731782908.7217052</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731782909.6390684</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782908.7217052.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731782909.6390684.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>61.26</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>61.21</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3375,51 +3721,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731782912.0860403</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731782913.649766</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782912.0860403.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782913.649766.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>58.97</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>58.78</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3427,51 +3779,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731782913.745505</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731782914.0566938</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782913.745505.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782914.0566938.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>58.29</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>58.46</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3479,51 +3837,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731782914.789521</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731782917.7477312</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782914.789521.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782917.7477312.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>57.7</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>56.83</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.8700000000000045</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-1.51</v>
       </c>
     </row>
@@ -3531,51 +3895,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731782917.9823651</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731782919.6383443</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782917.9823651.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731782919.6383443.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>56.95</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>57.13</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.1799999999999997</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -3583,95 +3953,107 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731782920.2940013</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731782920.2940013.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731782920.2940013.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>57.09</v>
       </c>
-      <c r="J62" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>56.92</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.1700000000000017</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731782920.4475915</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731782921.1812446</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782920.4475915.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782921.1812446.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>144.94</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>144.48</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.460000000000008</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3679,51 +4061,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731782923.1348069</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731782923.7724288</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782923.1348069.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782923.7724288.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>143.52</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>143.54</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.01999999999998181</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3731,51 +4119,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731782924.389777</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731782926.0200481</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782924.389777.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731782926.0200481.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>141.08</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>139.78</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-1.300000000000011</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.9199999999999999</v>
       </c>
     </row>
@@ -3783,95 +4177,107 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731782929.9005659</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731782929.9005659.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731782929.9005659.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>140.66</v>
       </c>
-      <c r="J66" t="n">
-        <v>140.66</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>140.08</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.5799999999999841</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731782931.9473317</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731782932.3692021</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731782931.9473317.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731782932.3692021.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>58.55</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>58.39</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3879,51 +4285,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731782932.7432015</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731782935.212674</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731782932.7432015.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731782935.212674.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>57.54</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>56.1</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-1.439999999999998</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-2.5</v>
       </c>
     </row>
@@ -3931,51 +4343,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731782935.8045347</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731782937.0312853</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731782935.8045347.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731782937.0312853.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>56.23</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>56.32</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.09000000000000341</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3983,95 +4401,107 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731782937.8641543</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731782937.8641543.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731782937.8641543.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>56.21</v>
       </c>
-      <c r="J70" t="n">
-        <v>56.21</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>56.07</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731782939.1942437</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731782940.0296395</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731782939.1942437.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731782940.0296395.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>382.68</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>385</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>2.319999999999993</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -4079,51 +4509,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731782940.4694152</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731782941.2162788</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731782940.4694152.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731782941.2162788.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>385.17</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>384.29</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.8799999999999955</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -4131,51 +4567,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731782941.8090122</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731782943.3966491</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731782941.8090122.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731782943.3966491.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>381.93</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>382.05</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4183,51 +4625,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731782944.3081105</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731782945.6056113</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731782944.3081105.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731782945.6056113.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>383.67</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>384.62</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.9499999999999886</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -4235,95 +4683,107 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731782947.071716</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731782947.071716.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731782947.071716.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>384.2</v>
       </c>
-      <c r="J75" t="n">
-        <v>384.2</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>383.6</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-0.5999999999999659</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731782949.2726014</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731782949.4787016</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782949.2726014.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782949.4787016.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>0.10102</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>0.10114</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.0001199999999999951</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4331,51 +4791,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731782950.1476347</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731782950.2202096</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782950.1476347.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782950.2202096.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>0.10142</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>0.10112</v>
       </c>
-      <c r="K77" t="n">
-        <v>0.0003000000000000086</v>
-      </c>
-      <c r="L77" t="n">
+      <c r="M77" t="n">
+        <v>0.0002999999999999947</v>
+      </c>
+      <c r="N77" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4383,51 +4849,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731782950.701547</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731782951.0316308</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782950.701547.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782951.0316308.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.10068</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.10104</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.0003599999999999992</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -4435,51 +4907,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731782951.4904945</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731782953.4714048</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782951.4904945.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782953.4714048.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>0.09954</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>0.09844000000000001</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.00109999999999999</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-1.11</v>
       </c>
     </row>
@@ -4487,51 +4965,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731782954.5020936</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731782957.0190697</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782954.5020936.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731782957.0190697.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>0.0985</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>0.09864000000000001</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.0001400000000000012</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -4539,95 +5023,107 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731782957.3037996</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731782957.3037996.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731782957.3037996.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>0.09854</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.09854</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>0.09826</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.0002800000000000025</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731782957.7146008</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731782958.4080553</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782957.7146008.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782958.4080553.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>3134.05</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>3125.6</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>8.450000000000273</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -4635,51 +5131,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731782959.9949746</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731782960.3484561</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782959.9949746.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782960.3484561.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>3134.95</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>3129.05</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>5.899999999999636</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -4687,51 +5189,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731782960.8960729</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731782961.1154432</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782960.8960729.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782961.1154432.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>3100.75</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>3117.95</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>17.19999999999982</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -4739,51 +5247,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731782961.839638</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731782963.970435</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782961.839638.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782963.970435.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>3075.5</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>3074.7</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.8000000000001819</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4791,51 +5305,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731782964.601746</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731782965.6176836</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782964.601746.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782965.6176836.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>3077</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>3074.3</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>2.699999999999818</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -4843,51 +5363,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731782966.1799097</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731782966.5037866</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782966.1799097.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782966.5037866.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>3083.5</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>3076.6</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>6.900000000000091</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -4895,51 +5421,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731782966.6412196</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731782967.1390393</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782966.6412196.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MXI1731782967.1390393.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>3075.55</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>3081.25</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>5.699999999999818</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -4947,95 +5479,107 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731782967.1889055</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731782967.1889055.png</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731782967.1889055.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>3073.55</v>
       </c>
-      <c r="J89" t="n">
-        <v>3073.55</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>3065.9</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-7.650000000000091</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731782967.5798872</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731782968.2680192</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731782967.5798872.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731782968.2680192.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>37.945</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>37.8</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.1450000000000031</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -5043,51 +5587,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731782969.6842299</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731782969.8976588</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731782969.6842299.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731782969.8976588.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>37.785</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>37.78</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-0.004999999999995453</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -5095,51 +5645,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731782970.2527094</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731782970.7404315</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731782970.2527094.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731782970.7404315.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>37.68</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>37.79</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -5147,51 +5703,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731782970.8082497</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731782971.0635672</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731782970.8082497.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731782971.0635672.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>37.63</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>37.56</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-0.07000000000000028</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -5199,51 +5761,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731782971.549267</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731782974.039577</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731782971.549267.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731782974.039577.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>37.125</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>35.825</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-1.299999999999997</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>-3.5</v>
       </c>
     </row>
@@ -5251,51 +5819,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731782974.748686</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731782976.3059142</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731782974.748686.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731782976.3059142.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>36.12</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>35.985</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.134999999999998</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -5303,95 +5877,107 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731782976.7206933</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731782976.7206933.png</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731782976.7206933.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>35.855</v>
       </c>
-      <c r="J96" t="n">
-        <v>35.855</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>35.8</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-0.05499999999999972</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731782979.7154896</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731782980.5331337</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/TATN1731782979.7154896.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/TATN1731782980.5331337.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>661.3</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>660.9</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -5399,51 +5985,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731782981.0090475</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731782981.5613086</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/TATN1731782981.0090475.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/TATN1731782981.5613086.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>657.7</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>658</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.2999999999999545</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -5451,51 +6043,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731782982.2727294</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731782982.7333667</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/TATN1731782982.2727294.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/TATN1731782982.7333667.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>652.2</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>656</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -5503,51 +6101,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731782983.3550599</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731782984.7889762</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/TATN1731782983.3550599.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/TATN1731782984.7889762.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>649.5</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>654.1</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>4.600000000000023</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -5555,51 +6159,57 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731782985.066495</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731782986.2975664</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/TATN1731782985.066495.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/TATN1731782986.2975664.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>655.3</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>655.2</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.09999999999990905</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5607,44 +6217,50 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731782986.9742758</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731782986.9742758.png</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731782986.9742758.png</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>653.1</v>
       </c>
-      <c r="J102" t="n">
-        <v>653.1</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>651.6</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.23</v>
       </c>
     </row>
   </sheetData>
@@ -5705,19 +6321,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46.04999999999927</v>
+        <v>38.39999999999918</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>5.756249999999909</v>
+        <v>4.799999999999898</v>
       </c>
       <c r="E2" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="F2" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -5727,19 +6343,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.394999999999996</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05642857142857086</v>
+        <v>-0.08714285714285706</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.74</v>
+        <v>-1.15</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.11</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="4">
@@ -5771,19 +6387,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9849999999999923</v>
+        <v>-1.039999999999992</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1407142857142846</v>
+        <v>-0.1485714285714274</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.660000000000001</v>
+        <v>-2.81</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.38</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="6">
@@ -5793,19 +6409,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.199999999999818</v>
+        <v>12.99999999999977</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.19999999999997</v>
+        <v>2.166666666666629</v>
       </c>
       <c r="E6" t="n">
-        <v>0.49</v>
+        <v>0.89</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -5815,19 +6431,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0004599999999999882</v>
+        <v>-0.0007400000000000045</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.66666666666647e-05</v>
+        <v>-0.0001233333333333341</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4700000000000001</v>
+        <v>-0.75</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.08</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="8">
@@ -5837,19 +6453,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.199999999999818</v>
+        <v>7.699999999999818</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1.533333333333303</v>
+        <v>1.283333333333303</v>
       </c>
       <c r="E8" t="n">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="F8" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -5903,19 +6519,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.6900000000000048</v>
+        <v>-0.8600000000000065</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.138000000000001</v>
+        <v>-0.1720000000000013</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.22</v>
+        <v>-1.52</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.24</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="12">
@@ -5925,19 +6541,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.370000000000005</v>
+        <v>1.770000000000039</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4740000000000009</v>
+        <v>0.3540000000000078</v>
       </c>
       <c r="E12" t="n">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="F12" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="13">
@@ -5947,19 +6563,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.430000000000035</v>
+        <v>1.350000000000023</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.286000000000007</v>
+        <v>0.2700000000000046</v>
       </c>
       <c r="E13" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="F13" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14">
@@ -6013,19 +6629,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.8200000000000216</v>
+        <v>-1.400000000000006</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2050000000000054</v>
+        <v>-0.3500000000000014</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5899999999999999</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.15</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="17">
@@ -6035,19 +6651,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.370000000000005</v>
+        <v>-1.510000000000005</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3425000000000011</v>
+        <v>-0.3775000000000013</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.39</v>
+        <v>-2.64</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="18">
